--- a/PolicyEffectiveness/0-DayLag_MinnesotaPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_MinnesotaPolicy.xlsx
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
